--- a/biology/Botanique/Sparrmannia/Sparrmannia.xlsx
+++ b/biology/Botanique/Sparrmannia/Sparrmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sparrmannia est un genre végétal de la famille des Malvaceae selon la classification phylogénétique.
-Sparrmannia est une plante qui a été classée dans la famille des Tiliaceae mais qui est désormais classée plutôt dans celle des Malvaceae[1] et plus spécifiquement dans la tribu des Apeibeae[2].
+Sparrmannia est une plante qui a été classée dans la famille des Tiliaceae mais qui est désormais classée plutôt dans celle des Malvaceae et plus spécifiquement dans la tribu des Apeibeae.
 Ses espèces sont souvent des plantes d'appartement.
 </t>
         </is>
@@ -514,11 +526,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (29 janv. 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (29 janv. 2016) :
 Sparrmannia africana L.f.
-Selon NCBI  (29 janv. 2016)[4] :
+Selon NCBI  (29 janv. 2016) :
 Sparrmannia africana L.f.
 Sparrmannia palmata
 Sparrmannia ricinocarpa</t>
@@ -549,12 +563,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Sparrmannia L.f., 1781[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Sparrmannia L.f., 1781.
 On trouve aussi l'écriture alternative Sparmannia.
-Phylogénie
-Des travaux publiés en 2019 suggèrent que le genre Sparrmannia est un genre proche du genre monotypique Entelea[2].
 </t>
         </is>
       </c>
@@ -580,12 +594,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des travaux publiés en 2019 suggèrent que le genre Sparrmannia est un genre proche du genre monotypique Entelea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sparrmannia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sparrmannia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante se retrouve en Afrique du Sud et à Madagascar[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante se retrouve en Afrique du Sud et à Madagascar.
 </t>
         </is>
       </c>
